--- a/Minidrop build and test/Our aid documents and purchases/Mouser_Nov_23_2018.xlsx
+++ b/Minidrop build and test/Our aid documents and purchases/Mouser_Nov_23_2018.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twenzel/Library/Mobile Documents/com~apple~CloudDocs/Open Microfluidics/Metafluidics Minidrop/purchases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twenzel/Documents/GitHub/OpenMicrofluidics/Minidrop build and test/Our aid documents and purchases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458F19E4-5B51-6C41-BB7B-B1C733360E3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF846F8-AB1B-C344-AFB5-8B2A864C9A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33460" yWindow="-2820" windowWidth="25680" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="11160" windowWidth="23880" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warenkorb" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -253,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_-* ###0.00\ _€_-;\-* ###0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="###0.00\ &quot;€&quot;;\-###0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* ###0.00\ _€_-;\-* ###0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###0.00\ &quot;€&quot;;\-###0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +276,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,15 +315,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -713,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:K2429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,7 +802,7 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
@@ -823,7 +831,7 @@
       <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G11" t="s">
@@ -913,7 +921,7 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G14" t="s">
@@ -1087,7 +1095,7 @@
       <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
@@ -1116,7 +1124,7 @@
       <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I21">
